--- a/backend/data/checkExcel.xlsx
+++ b/backend/data/checkExcel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Дата завдання</t>
   </si>
@@ -58,40 +58,46 @@
     <t>Коментар</t>
   </si>
   <si>
-    <t>15-01-2019</t>
+    <t>18-01-2019</t>
+  </si>
+  <si>
+    <t>ЛУЦЬКВОДОКАНАЛ</t>
+  </si>
+  <si>
+    <t>Тестовий</t>
+  </si>
+  <si>
+    <t>Тестова</t>
+  </si>
+  <si>
+    <t>Т3</t>
+  </si>
+  <si>
+    <t>Т33</t>
+  </si>
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>Т55</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Шевченківський</t>
-  </si>
-  <si>
-    <t>Львівська</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Павлова Павла Павловича</t>
-  </si>
-  <si>
-    <t>505050555</t>
-  </si>
-  <si>
-    <t>2019-01-25T22:00:00.000Z</t>
-  </si>
-  <si>
-    <t>15012019003</t>
-  </si>
-  <si>
-    <t>Коментарик</t>
-  </si>
-  <si>
-    <t>15012019002</t>
-  </si>
-  <si>
-    <t>15012019001</t>
+    <t>Тестовий Тест Тестович</t>
+  </si>
+  <si>
+    <t>+38097334523</t>
+  </si>
+  <si>
+    <t>09-02-2019</t>
+  </si>
+  <si>
+    <t>18012019001</t>
+  </si>
+  <si>
+    <t>Тестовий коментар</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -241,128 +247,34 @@
         <v>19</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="O2" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/checkExcel.xlsx
+++ b/backend/data/checkExcel.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="630" yWindow="840" windowWidth="19575" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Завдання" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Дата завдання</t>
   </si>
@@ -56,55 +59,13 @@
   </si>
   <si>
     <t>Коментар</t>
-  </si>
-  <si>
-    <t>18-01-2019</t>
-  </si>
-  <si>
-    <t>ЛУЦЬКВОДОКАНАЛ</t>
-  </si>
-  <si>
-    <t>Тестовий</t>
-  </si>
-  <si>
-    <t>Тестова</t>
-  </si>
-  <si>
-    <t>Т3</t>
-  </si>
-  <si>
-    <t>Т33</t>
-  </si>
-  <si>
-    <t>Т1</t>
-  </si>
-  <si>
-    <t>Т55</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Тестовий Тест Тестович</t>
-  </si>
-  <si>
-    <t>+38097334523</t>
-  </si>
-  <si>
-    <t>09-02-2019</t>
-  </si>
-  <si>
-    <t>18012019001</t>
-  </si>
-  <si>
-    <t>Тестовий коментар</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -151,29 +112,354 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyBorder="1" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="5" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
@@ -183,7 +469,7 @@
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -228,53 +514,6 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
